--- a/Controle de Materiais Estoque.xlsx
+++ b/Controle de Materiais Estoque.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/afonsoverardi_prestserv_petrobras_com_br/Documents/Documentos/GitHub/dashboard-estoque/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_07F94E695743580F62355476585DCE3A87479C73" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7FE7C30-096C-43E8-8A65-01F6C236182E}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_07F94E695743580F62355476585DCE3A87479C73" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{703B79CA-9F19-4E2B-86CD-FF3250166AEA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="114">
   <si>
     <t>NM</t>
   </si>
@@ -191,12 +191,6 @@
   </si>
   <si>
     <t>Etiqueta seg. padrão PE-2RGN-00104 polie</t>
-  </si>
-  <si>
-    <t>11.245.954</t>
-  </si>
-  <si>
-    <t>Extintor incên. 80-B:C</t>
   </si>
   <si>
     <t>11.331.124</t>
@@ -443,6 +437,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -730,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,13 +1354,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -1370,22 +1368,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
@@ -1399,16 +1397,16 @@
         <v>68</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>10000</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -1416,19 +1414,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30">
+        <v>13000</v>
+      </c>
+      <c r="D30" t="s">
         <v>69</v>
       </c>
-      <c r="B30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30">
-        <v>10000</v>
-      </c>
-      <c r="D30" t="s">
-        <v>71</v>
-      </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -1445,10 +1443,10 @@
         <v>73</v>
       </c>
       <c r="C31">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
@@ -1468,16 +1466,16 @@
         <v>75</v>
       </c>
       <c r="C32">
-        <v>14000</v>
+        <v>2500</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G32" t="s">
         <v>12</v>
@@ -1491,13 +1489,13 @@
         <v>77</v>
       </c>
       <c r="C33">
-        <v>2500</v>
+        <v>4400</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F33" t="s">
         <v>20</v>
@@ -1514,13 +1512,13 @@
         <v>79</v>
       </c>
       <c r="C34">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
@@ -1546,7 +1544,7 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
         <v>12</v>
@@ -1606,16 +1604,16 @@
         <v>87</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G38" t="s">
         <v>12</v>
@@ -1623,22 +1621,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C39">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s">
         <v>12</v>
@@ -1652,16 +1650,16 @@
         <v>93</v>
       </c>
       <c r="C40">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
@@ -1675,7 +1673,7 @@
         <v>95</v>
       </c>
       <c r="C41">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1698,16 +1696,16 @@
         <v>97</v>
       </c>
       <c r="C42">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
         <v>12</v>
@@ -1721,7 +1719,7 @@
         <v>99</v>
       </c>
       <c r="C43">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -1744,16 +1742,16 @@
         <v>101</v>
       </c>
       <c r="C44">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
@@ -1767,16 +1765,16 @@
         <v>103</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="E45" t="s">
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G45" t="s">
         <v>12</v>
@@ -1790,16 +1788,16 @@
         <v>105</v>
       </c>
       <c r="C46">
-        <v>5.8000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
@@ -1813,7 +1811,7 @@
         <v>107</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
@@ -1822,7 +1820,7 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G47" t="s">
         <v>12</v>
@@ -1836,7 +1834,7 @@
         <v>109</v>
       </c>
       <c r="C48">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -1859,13 +1857,13 @@
         <v>111</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F49" t="s">
         <v>11</v>
@@ -1894,29 +1892,6 @@
         <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>114</v>
-      </c>
-      <c r="B51" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-      <c r="D51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Controle de Materiais Estoque.xlsx
+++ b/Controle de Materiais Estoque.xlsx
@@ -482,11 +482,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
@@ -517,11 +517,11 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
@@ -552,11 +552,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -571,19 +571,19 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10.667.890</t>
+          <t>10.937.338</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cadeado 30x30x20x5x17x13,5mm capa termop</t>
+          <t>Cadeado 25x26x17x4,5x14x13mm capa termop</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -591,12 +591,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>ZD</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,19 +606,19 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10.394.315</t>
+          <t>10.544.315</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cadeado 30x30x20x5x17x13,5mm capa termop</t>
+          <t>Cadeado 25x26x17x4,5x14x13mm capa termop</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -626,12 +626,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>ZD</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,23 +641,23 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10.544.315</t>
+          <t>10.667.890</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cadeado Azul</t>
+          <t>Cadeado 30x30x20x5x17x13,5mm capa termop</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ZD</t>
+          <t>VB</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,23 +676,23 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10.937.338</t>
+          <t>10.394.315</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cadeado Preto</t>
+          <t>Cadeado 30x30x20x5x17x13,5mm capa termop</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ZD</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
@@ -727,11 +727,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
@@ -762,11 +762,11 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chave p/volante válvula - Chave de hidrante pequena</t>
+          <t>Chave p/volante válvula</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -816,7 +816,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
@@ -832,11 +832,11 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
@@ -867,11 +867,11 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
@@ -902,11 +902,11 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
@@ -937,11 +937,11 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cola a Frio Borr. Sintética Bisn 85 ml</t>
+          <t>Cola a frio borr. sintética bisn 85ml</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -991,7 +991,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
@@ -1042,11 +1042,11 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
@@ -1077,11 +1077,11 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
@@ -1112,11 +1112,11 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
@@ -1147,11 +1147,11 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
@@ -1182,11 +1182,11 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.300</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
@@ -1217,11 +1217,11 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
@@ -1252,11 +1252,11 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1271,19 +1271,19 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>10.026.438</t>
+          <t>11.331.124</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Extintor incên. c/carga de pó- 12 Kg (40:BC) *</t>
+          <t>Extintor incên. cil.AC 6-A:40-B:C</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1306,19 +1306,19 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>11.331.124</t>
+          <t>10.026.438</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Extintor incên. c/carga de pó- 12 Kg (6:A 40:BC) *</t>
+          <t>Extintor incên. cil.AI 40-B:C</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>11.874.356</t>
+          <t>11.809.118</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Kit absorvedor p/derramamento</t>
+          <t>Isobutileno 100ppm cil.0,1m³</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1371,32 +1371,32 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Equipamentos de Emergência Ambiental</t>
+          <t>Equipamentos de Medição e Gases</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>12.088.160</t>
+          <t>11.874.356</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LGE(líquido gerador de espuma) 1-3% 1000</t>
+          <t>Kit absorvedor p/derramamento</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>10.000,000</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1406,37 +1406,37 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Equipamentos de Combate à Incêndio</t>
+          <t>Equipamentos de Emergência Ambiental</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>10.734.499</t>
+          <t>12.088.160</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>LGE(líquido gerador de espuma) 3% 1000L</t>
+          <t>LGE(líquido gerador de espuma) 1-3% 1000</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>13.000,000</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ZD</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1446,27 +1446,27 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>10.734.501</t>
+          <t>10.734.499</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>LGE(líquido gerador de espuma) 3-6% 1000</t>
+          <t>LGE(líquido gerador de espuma) 3% 1000L</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.000,000</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1481,67 +1481,67 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>10.997.331</t>
+          <t>10.734.501</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Lacre plást. 30cm polipropil.</t>
+          <t>LGE(líquido gerador de espuma) 3-6% 1000</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.500</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>ZD</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Equipamentos de Libra</t>
+          <t>Equipamentos de Combate à Incêndio</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>10.994.961</t>
+          <t>10.997.331</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Lacre plást. D.1,5x500mm plástico</t>
+          <t>Lacre plást. 30cm polipropil.</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4.400</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1551,23 +1551,23 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>11.158.686</t>
+          <t>10.994.961</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Lacre plást. cordoalha AC D.1,5x600mm pl</t>
+          <t>Lacre plást. D.1,5x500mm plástico</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ZD</t>
+          <t>VB</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1586,19 +1586,19 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>13.267.594</t>
+          <t>11.158.686</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Lanterna cap. 3x LR03(AAA) 1,5V Ex ia II</t>
+          <t>Lacre plást. cordoalha AC D.1,5x600mm pl</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1616,24 +1616,24 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Equipamentos de Libra</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>13.445.279</t>
+          <t>13.267.594</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Livreto 85x130mm 93fls. (AST)</t>
+          <t>Lanterna cap. 3x LR03(AAA) 1,5V Ex ia II</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1656,19 +1656,19 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>12.775.577</t>
+          <t>13.445.279</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Livreto padrão básico segurança 85x130mm (PBS)</t>
+          <t>Livreto 85x130mm 93fls. (AST)</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1691,19 +1691,19 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>10.178.332</t>
+          <t>12.775.577</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Lona plást. PRT 6,0mx 170micra x x50m</t>
+          <t>Livreto padrão básico segurança 85x130mm (PBS)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1711,112 +1711,112 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>50,000</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ZB</t>
+          <t>ZD</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Equipamentos de Emergência Ambiental</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>10.494.563</t>
+          <t>10.178.332</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Lubrificante em aerosol fr 300ml</t>
+          <t>Lona plást. PRT 6,0mx 170micra x x50m</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>ZB</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Equipamentos de Emergência Ambiental</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>10.057.533</t>
+          <t>10.494.563</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mangueira incêndio DN 40mm NBR11861 tipo</t>
+          <t>Lubrificante em aerosol fr 300ml</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>VB</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Equipamentos de Combate à Incêndio</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>10.426.638</t>
+          <t>10.057.533</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mangueira incêndio DN 65mm NBR11861 tipo</t>
+          <t>Mangueira incêndio DN 40mm NBR11861 tipo</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1831,62 +1831,62 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>10.203.856</t>
+          <t>10.426.638</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Marcador esfer. p/metal pta.3mm amarela</t>
+          <t>Mangueira incêndio DN 65mm NBR11861 tipo</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ZD</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Equipamentos de Combate à Incêndio</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>11.006.532</t>
+          <t>10.203.856</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Marcador esfer. p/metal pta.3mm vermelha</t>
+          <t>Marcador esfer. p/metal pta.3mm amarela</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1901,23 +1901,23 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>11.809.118</t>
+          <t>11.006.532</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Mistura gasosa cil.34L 100ppm Isobutileno</t>
+          <t>Marcador esfer. p/metal pta.3mm vermelha</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1926,17 +1926,17 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>ZD</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Equipamentos de Medição e Gases</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mistura gasosa cil.34L 10ppm Isobutileno</t>
+          <t>Mistura gasosa cil.34L 10ppm</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mistura gasosa cil.58L 4 Gases</t>
+          <t>Mistura gasosa cil.58L 1,45% 60ppm 15% 2</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Protetor de FISPQ</t>
+          <t>Protetor de FDS</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
@@ -2057,11 +2057,11 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
@@ -2092,11 +2092,11 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
@@ -2127,11 +2127,11 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>
@@ -2162,11 +2162,11 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>09/08/2025 08:50:26</t>
+          <t>09/08/2025 09:01:03</t>
         </is>
       </c>
     </row>

--- a/Controle de Materiais Estoque.xlsx
+++ b/Controle de Materiais Estoque.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>09/08/2025 09:01:03</t>
+          <t>09/08/2025 09:03:26</t>
         </is>
       </c>
     </row>
